--- a/Docs/项目周期评估.xlsx
+++ b/Docs/项目周期评估.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyu/Documents/pku/wechatApplet/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DD7CCF-D67A-4D42-8D85-9486946D99E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1D508-710C-3647-8A3E-29CD6B90F74F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="520" windowWidth="28240" windowHeight="16020" xr2:uid="{937CD23C-B7C1-8C4B-8DD8-BDE12BFB25F6}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="28240" windowHeight="15920" xr2:uid="{937CD23C-B7C1-8C4B-8DD8-BDE12BFB25F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>签到系统研发周期评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,29 @@
   </si>
   <si>
     <t>微信客户端的学生活动纬度管理，web端的导入导出实现；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目git地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git@github.com:icoty/wechatApplet.git</t>
+  </si>
+  <si>
+    <t>后台服务器：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序码：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.40.199.171  所在目录：/home/ruanwei    用户民： ruanwei  密码：ruanwei       mysql用户：root 密码：ruanwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ßßß</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +178,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,6 +388,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51E8AD2-48BE-3F49-BCA5-C19BB8FC042A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="965200" y="3429000"/>
+          <a:ext cx="2400300" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2AB41F-095D-9A41-A199-FD8172F32A18}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -808,8 +889,35 @@
         <v>43617</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/项目周期评估.xlsx
+++ b/Docs/项目周期评估.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyu/Documents/pku/wechatApplet/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1D508-710C-3647-8A3E-29CD6B90F74F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF6E983-6874-934F-939D-962FF4E95C7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="460" windowWidth="28240" windowHeight="15920" xr2:uid="{937CD23C-B7C1-8C4B-8DD8-BDE12BFB25F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>签到系统研发周期评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +142,718 @@
   </si>
   <si>
     <t>ßßß</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_student_number</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>user_student_name</t>
+  </si>
+  <si>
+    <t>CHAR(30)</t>
+  </si>
+  <si>
+    <t>user_grade</t>
+  </si>
+  <si>
+    <t>date(YYYY-MM)</t>
+  </si>
+  <si>
+    <t>user_gender</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>user_privilige</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>user_class</t>
+  </si>
+  <si>
+    <t>CHAR(20)</t>
+  </si>
+  <si>
+    <t>user_major</t>
+  </si>
+  <si>
+    <t>CHAR(50)</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>CHAR(512)</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>新疆、西藏、留学生名字较长</t>
+  </si>
+  <si>
+    <r>
+      <t>入学年份：比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如不含有此项的领导默认值为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000.</t>
+    </r>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <r>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：男</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：女</t>
+    </r>
+  </si>
+  <si>
+    <t>enum{</t>
+  </si>
+  <si>
+    <r>
+      <t>参与者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 0,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>教职工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 1,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>班级共用账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 2,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 3</t>
+    </r>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <r>
+      <t>用户密码，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sha512(password)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，客户端加密后发给服务端存储</t>
+    </r>
+  </si>
+  <si>
+    <t>用户找回密码需要邮件验证</t>
+  </si>
+  <si>
+    <t>act_number</t>
+  </si>
+  <si>
+    <t>act_creator</t>
+  </si>
+  <si>
+    <t>act_name</t>
+  </si>
+  <si>
+    <t>act_address</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>act_start_time</t>
+  </si>
+  <si>
+    <t>date(YYYY-MM-DD HH:MM:SS)</t>
+  </si>
+  <si>
+    <t>act_end_time</t>
+  </si>
+  <si>
+    <t>act_theme</t>
+  </si>
+  <si>
+    <t>CHAR(200)</t>
+  </si>
+  <si>
+    <t>act_type</t>
+  </si>
+  <si>
+    <t>act_host</t>
+  </si>
+  <si>
+    <t>act_start_sign</t>
+  </si>
+  <si>
+    <t>act_end_sign</t>
+  </si>
+  <si>
+    <t>act_isSignOut</t>
+  </si>
+  <si>
+    <r>
+      <t>活动编号，命名格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYYYYDDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2018110202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日创建的第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个活动</t>
+    </r>
+  </si>
+  <si>
+    <t>活动创建者</t>
+  </si>
+  <si>
+    <t>FK(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>活动名称</t>
+  </si>
+  <si>
+    <t>活动开展地址</t>
+  </si>
+  <si>
+    <t>活动开始时间</t>
+  </si>
+  <si>
+    <t>活动结束时间</t>
+  </si>
+  <si>
+    <t>活动主题内容，（如无内容则用默认内容填充）：</t>
+  </si>
+  <si>
+    <t>1.***</t>
+  </si>
+  <si>
+    <t>2.***</t>
+  </si>
+  <si>
+    <t>3.***</t>
+  </si>
+  <si>
+    <t>活动类型？讲座？支教？比赛……</t>
+  </si>
+  <si>
+    <t>如何分类需要定下来</t>
+  </si>
+  <si>
+    <r>
+      <t>学苑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 0,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>党支部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 1,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>青协</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 2,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>研会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 3,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>预留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 4,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>预留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 5 };</t>
+    </r>
+  </si>
+  <si>
+    <t>有哪些组织需要定下来</t>
+  </si>
+  <si>
+    <t>签到开始时间</t>
+  </si>
+  <si>
+    <t>签到截止时间</t>
+  </si>
+  <si>
+    <t>签入还是签退，</t>
+  </si>
+  <si>
+    <r>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：签入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：签退，</t>
+    </r>
+  </si>
+  <si>
+    <t>默认为签入</t>
+  </si>
+  <si>
+    <t>act2stu_id</t>
+  </si>
+  <si>
+    <t>act2stu_act_num</t>
+  </si>
+  <si>
+    <t>act2stu_stu_num</t>
+  </si>
+  <si>
+    <t>act2stu_sign_time</t>
+  </si>
+  <si>
+    <t>DATE(YYYY-MM-DD HH:MM:SS)</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>自增</t>
+  </si>
+  <si>
+    <r>
+      <t>活动编号，命名格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYYYYDDNO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2018110202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日创建的第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个活动</t>
+    </r>
+  </si>
+  <si>
+    <t>FK(act_number)</t>
+  </si>
+  <si>
+    <t>活动参与者</t>
+  </si>
+  <si>
+    <t>活动签入时间</t>
+  </si>
+  <si>
+    <t>活动退时间</t>
+  </si>
+  <si>
+    <t>评分类型，设计题目，根据题目类型设计该数据表的字段和属性</t>
+  </si>
+  <si>
+    <t>act2stu_scores</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +861,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +899,45 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +947,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -306,13 +1060,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,6 +1194,150 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +1705,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -920,4 +1886,631 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5930F7-2988-B047-B3C5-16010FFA7979}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="48" customWidth="1"/>
+    <col min="2" max="9" width="15.83203125" style="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="32">
+      <c r="A1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1">
+      <c r="A2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="43"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="43"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="I3:I8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A723B89E-CF8C-B240-947D-CFC253023F97}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="12" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32">
+      <c r="A1" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="49" thickBot="1">
+      <c r="A2" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="141">
+      <c r="A3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="31">
+      <c r="A5" s="24"/>
+      <c r="B5" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32">
+      <c r="A6" s="24"/>
+      <c r="B6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="24"/>
+      <c r="B7" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="24"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="31" thickBot="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="J3:J11"/>
+    <mergeCell ref="K3:K11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C2F54F-0948-C942-B6A4-C62A0508287F}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="49" thickBot="1">
+      <c r="A2" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="141">
+      <c r="A3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" ht="32">
+      <c r="A5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" ht="32">
+      <c r="A6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>